--- a/06.project/data/rawdata/주유소/동래구_주유소_현황.xlsx
+++ b/06.project/data/rawdata/주유소/동래구_주유소_현황.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>상호</t>
   </si>
@@ -44,14 +39,7 @@
     <t>한창주유소</t>
   </si>
   <si>
-    <t>새주소</t>
-  </si>
-  <si>
     <t>연락처</t>
-  </si>
-  <si>
-    <t>주유소 현황</t>
-    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>연번</t>
@@ -218,17 +206,21 @@
   </si>
   <si>
     <t>051  5553258</t>
+  </si>
+  <si>
+    <t>주소</t>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="000\-0000"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,12 +785,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -961,7 +950,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -993,10 +982,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,7 +1016,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1204,320 +1191,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="27.25" customWidth="1"/>
-    <col min="3" max="3" width="38.625" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="27.19921875" customWidth="1"/>
+    <col min="3" max="3" width="38.59765625" customWidth="1"/>
+    <col min="4" max="4" width="19.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" customHeight="1">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1</v>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" customHeight="1">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" customHeight="1">
+      <c r="A7" s="3">
         <v>6</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>2</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>3</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" customHeight="1">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>6</v>
+      <c r="C9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" customHeight="1">
+      <c r="A10" s="3">
+        <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>7</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" customHeight="1">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" customHeight="1">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" customHeight="1">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>11</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6" t="s">
+    <row r="15" spans="1:4" ht="30" customHeight="1">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>13</v>
-      </c>
-      <c r="B17" s="7" t="s">
+    <row r="16" spans="1:4" ht="30" customHeight="1">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D16" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>14</v>
-      </c>
-      <c r="B18" s="6" t="s">
+    <row r="17" spans="1:4" ht="30" customHeight="1">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" customHeight="1">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <v>15</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="C18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30" customHeight="1">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D19" s="12" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>17</v>
-      </c>
-      <c r="B21" s="6" t="s">
+    <row r="20" spans="1:4" ht="30" customHeight="1">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="13" t="s">
+      <c r="D20" s="16" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>18</v>
-      </c>
-      <c r="B22" s="6" t="s">
+    <row r="21" spans="1:4" ht="30" customHeight="1">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D21" s="16" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>19</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>20</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
+    <row r="22" spans="1:4" ht="30" customHeight="1"/>
+    <row r="23" spans="1:4" ht="30" customHeight="1"/>
+    <row r="24" spans="1:4" ht="30" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1526,12 +1511,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,12 +1524,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <sheetData/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
